--- a/media/output/result/sepsis_cases_1_Ncomplex_evaluation_weighted_edit_distance0.0,0.0,1.0.xlsx
+++ b/media/output/result/sepsis_cases_1_Ncomplex_evaluation_weighted_edit_distance0.0,0.0,1.0.xlsx
@@ -853,10 +853,10 @@
         <v>86</v>
       </c>
       <c r="C15" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9069767441860465</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.951219512195122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
